--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,18 +18,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區南簡段10330001地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區南簡段10320000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08280038地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08260043地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08260023地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08240021地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08210073地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08270054地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區梧棲段02010000地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區大庄段大庄小段00140041地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區大庄段大庄小段00140054地號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區永興段08400007地號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區大明段08050000地號</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>楊瓊瓔</t>
+  </si>
+  <si>
+    <t>楊覆瓔</t>
+  </si>
+  <si>
+    <t>楊輕</t>
+  </si>
+  <si>
+    <t>76年10月30日</t>
+  </si>
+  <si>
+    <t>76年09月10日</t>
+  </si>
+  <si>
+    <t>78年05月01曰</t>
+  </si>
+  <si>
+    <t>78年05月01日</t>
+  </si>
+  <si>
+    <t>74年03月20曰</t>
+  </si>
+  <si>
+    <t>74年03月20日</t>
+  </si>
+  <si>
+    <t>88年10月21日</t>
+  </si>
+  <si>
+    <t>94年02月23日</t>
+  </si>
+  <si>
+    <t>94年08月24日</t>
+  </si>
+  <si>
+    <t>96年03月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>033=貝買</t>
+  </si>
+  <si>
+    <t>.買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp8a701</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段00003000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段00104000建號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區永興段00676000建號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區大明段00138000建號</t>
+  </si>
+  <si>
+    <t>楊麵</t>
+  </si>
+  <si>
+    <t>74年03月19曰</t>
+  </si>
+  <si>
+    <t>96年03月19曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -41,148 +218,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市梧棲區南簡段1033-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區南簡段1032-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0828-0038 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0826-0043 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0826-0023 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0824-0021 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0821 -0073 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0827-0054 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區梧棲段0201 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區大庄段大庄小段 0014-0041 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區大庄段大庄小段 0014-0054 地號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區永興段0840-0007 地號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區大明段0805-0000 地號</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>楊瓊瓔</t>
-  </si>
-  <si>
-    <t>楊覆瓔</t>
-  </si>
-  <si>
-    <t>楊輕</t>
-  </si>
-  <si>
-    <t>76年10月 30日</t>
-  </si>
-  <si>
-    <t>76年09月 10日</t>
-  </si>
-  <si>
-    <t>78年05月 01曰</t>
-  </si>
-  <si>
-    <t>78年05月 01日</t>
-  </si>
-  <si>
-    <t>74年03月 20曰</t>
-  </si>
-  <si>
-    <t>74年03月 20日</t>
-  </si>
-  <si>
-    <t>88年10月 21日</t>
-  </si>
-  <si>
-    <t>94年02月 23日</t>
-  </si>
-  <si>
-    <t>94年08月 24日</t>
-  </si>
-  <si>
-    <t>96年03月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>033-=^ 貝買</t>
-  </si>
-  <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段00003-000建號</t>
-  </si>
-  <si>
-    <t>78年05月01日</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段00104-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區永興段00676-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區大明段00138-000 建號</t>
-  </si>
-  <si>
-    <t>楊麵</t>
-  </si>
-  <si>
-    <t>74年03月 19曰</t>
-  </si>
-  <si>
-    <t>96年03月 19曰</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>BENZ S350</t>
-  </si>
-  <si>
-    <t>100 年 02 月25日</t>
+    <t>BENZS350</t>
+  </si>
+  <si>
+    <t>100年02月25日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -589,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,343 +656,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>743</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>854</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>854</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>854</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>854</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>854</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>854</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>854</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="2">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>854</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="2">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>854</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>196.18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2">
         <v>3295824</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -971,25 +1304,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1">
         <v>354.75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -997,25 +1330,25 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>294.69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1023,25 +1356,25 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1049,22 +1382,22 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>754.92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2">
         <v>1665100</v>
@@ -1085,22 +1418,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1108,19 +1441,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
@@ -1141,19 +1474,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1161,16 +1494,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
@@ -1181,16 +1514,16 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>7000000</v>
@@ -1201,16 +1534,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2">
         <v>400094</v>
@@ -1221,16 +1554,16 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>225084</v>
@@ -1251,13 +1584,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1265,13 +1598,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1279,13 +1612,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市梧棲區南簡段10330001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市梧棲區南簡段10320000地號</t>
@@ -119,9 +122,6 @@
     <t>楊輕</t>
   </si>
   <si>
-    <t>76年10月30日</t>
-  </si>
-  <si>
     <t>76年09月10日</t>
   </si>
   <si>
@@ -176,91 +176,49 @@
     <t>tmp8a701</t>
   </si>
   <si>
-    <t>臺中市清水區康榔段00003000建號</t>
-  </si>
-  <si>
     <t>臺中市清水區康榔段00104000建號</t>
   </si>
   <si>
+    <t>楊麵</t>
+  </si>
+  <si>
+    <t>74年03月19曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>臺中市大雅區永興段00676000建號</t>
   </si>
   <si>
     <t>臺中市大雅區大明段00138000建號</t>
   </si>
   <si>
-    <t>楊麵</t>
-  </si>
-  <si>
-    <t>74年03月19曰</t>
-  </si>
-  <si>
     <t>96年03月19曰</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>BENZS350</t>
   </si>
   <si>
     <t>100年02月25日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台中商業銀行台中港分行</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行台中港分行</t>
   </si>
   <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>楊瓊環</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -628,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,25 +635,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>743</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
@@ -713,7 +677,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>854</v>
@@ -722,30 +686,36 @@
         <v>51</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.6666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>47</v>
@@ -760,7 +730,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>854</v>
@@ -769,30 +739,36 @@
         <v>51</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>47</v>
@@ -807,7 +783,7 @@
         <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>854</v>
@@ -816,30 +792,36 @@
         <v>51</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>47</v>
@@ -854,7 +836,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>854</v>
@@ -863,30 +845,36 @@
         <v>51</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>47</v>
@@ -901,7 +889,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>854</v>
@@ -910,30 +898,36 @@
         <v>51</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>47</v>
@@ -948,7 +942,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>854</v>
@@ -957,30 +951,36 @@
         <v>51</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>47</v>
@@ -995,7 +995,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>854</v>
@@ -1004,27 +1004,33 @@
         <v>51</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>740</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>43</v>
@@ -1042,7 +1048,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>854</v>
@@ -1051,27 +1057,33 @@
         <v>51</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>740</v>
+        <v>1552</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
@@ -1089,7 +1101,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>854</v>
@@ -1098,24 +1110,30 @@
         <v>51</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1552</v>
+        <v>635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>40</v>
@@ -1136,7 +1154,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>854</v>
@@ -1145,27 +1163,33 @@
         <v>51</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>635</v>
+        <v>65.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
@@ -1183,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>854</v>
@@ -1192,33 +1216,39 @@
         <v>51</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>65.9</v>
+        <v>196.18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>47</v>
+      <c r="H13" s="2">
+        <v>3295824</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>48</v>
@@ -1230,7 +1260,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
         <v>854</v>
@@ -1239,54 +1269,13 @@
         <v>51</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>196.18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3295824</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="2">
-        <v>854</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="2">
-        <v>25</v>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>98.09</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1307,19 +1296,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1">
-        <v>354.75</v>
+        <v>294.69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>47</v>
@@ -1327,25 +1316,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
-        <v>294.69</v>
+        <v>189.57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>47</v>
@@ -1353,53 +1342,27 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
-        <v>189.57</v>
+        <v>754.92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2">
-        <v>754.92</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H3" s="2">
         <v>1665100</v>
       </c>
     </row>
@@ -1410,52 +1373,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3498</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>4720100</v>
       </c>
     </row>
@@ -1466,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1474,98 +1414,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2">
-        <v>7000000</v>
+        <v>400094</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>400094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
         <v>225084</v>
       </c>
     </row>
@@ -1576,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,41 +1504,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>93</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市梧棲區南簡段10330001地號</t>
+  </si>
+  <si>
     <t>臺中市梧棲區南簡段10320000地號</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>楊輕</t>
   </si>
   <si>
+    <t>76年10月30日</t>
+  </si>
+  <si>
     <t>76年09月10日</t>
   </si>
   <si>
@@ -179,22 +185,22 @@
     <t>臺中市清水區康榔段00104000建號</t>
   </si>
   <si>
+    <t>臺中市大雅區永興段00676000建號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區大明段00138000建號</t>
+  </si>
+  <si>
     <t>楊麵</t>
   </si>
   <si>
     <t>74年03月19曰</t>
   </si>
   <si>
+    <t>96年03月19曰</t>
+  </si>
+  <si>
     <t>第一次登記</t>
-  </si>
-  <si>
-    <t>臺中市大雅區永興段00676000建號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區大明段00138000建號</t>
-  </si>
-  <si>
-    <t>96年03月19曰</t>
   </si>
   <si>
     <t>BENZS350</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,637 +650,690 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
+        <v>743</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>854</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.6666666666667</v>
+        <v>247.666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>854</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.666666666666667</v>
+        <v>11.6666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>854</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.66666666666667</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>854</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>24</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>854</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>8.66666666666667</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>854</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>22</v>
+        <v>8.66666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>854</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.33333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>740</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>854</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>740</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1552</v>
+        <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>854</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>635</v>
+        <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>854</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>0.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>317.5</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>65.9</v>
+        <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2">
         <v>854</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="2">
-        <v>65.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>196.18</v>
+        <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3295824</v>
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2">
         <v>854</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>196.18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3295824</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="2">
+      <c r="K14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="2">
         <v>25</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>98.09</v>
       </c>
     </row>
@@ -1285,85 +1344,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
         <v>294.69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
-        <v>189.57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
-        <v>754.92</v>
+        <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>189.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2">
+        <v>754.92</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2">
         <v>1665100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="2">
+        <v>35</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>377.46</v>
       </c>
     </row>
   </sheetData>
@@ -1373,29 +1566,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1">
         <v>3498</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1">
+        <v>4720100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2">
         <v>4720100</v>
       </c>
     </row>
@@ -1406,7 +1622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,16 +1630,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1">
         <v>2000000</v>
@@ -1431,61 +1647,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>400094</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2">
+        <v>400094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
         <v>225084</v>
       </c>
     </row>
@@ -1496,7 +1732,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,27 +1740,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>第一次登記</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>BENZS350</t>
@@ -1566,38 +1569,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4720100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1606,13 +1630,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>854</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1630,13 +1675,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1650,13 +1695,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1670,13 +1715,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1690,16 +1735,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2">
         <v>400094</v>
@@ -1710,13 +1755,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1740,10 +1785,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1754,10 +1799,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1768,10 +1813,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -203,6 +203,9 @@
     <t>第一次登記</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
   </si>
   <si>
     <t>100年02月25日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台中商業銀行台中港分行</t>
@@ -1429,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -1482,7 +1488,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -1535,7 +1541,7 @@
         <v>1665100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>51</v>
@@ -1580,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1621,7 +1627,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1630,7 +1636,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
@@ -1639,7 +1645,7 @@
         <v>4720100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>51</v>
@@ -1675,13 +1681,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1695,13 +1701,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1715,13 +1721,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1735,16 +1741,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2">
         <v>400094</v>
@@ -1755,13 +1761,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1785,10 +1791,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1799,10 +1805,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1813,10 +1819,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -218,22 +218,34 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台中商業銀行台中港分行</t>
   </si>
   <si>
+    <t>臺灣銀行台中港分行</t>
+  </si>
+  <si>
     <t>定期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行台中港分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>楊瓊環</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -1673,13 +1685,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1690,24 +1702,45 @@
         <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1715,19 +1748,40 @@
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>854</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1735,45 +1789,108 @@
       <c r="F3" s="2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>854</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>400094</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>854</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>225084</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>854</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1908,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1805,10 +1922,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1819,10 +1936,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2012-04-26_財產申報表_tmp8a701.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -248,6 +248,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t>吉利保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1900,49 +1906,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>854</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>854</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
